--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,54 +40,36 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -97,130 +79,145 @@
     <t>stop</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>free</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>wow</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>hand</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>sure</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -578,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,10 +583,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -647,13 +644,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -665,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -689,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -697,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -715,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -747,13 +744,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -765,19 +762,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -789,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -797,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -815,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.925</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -847,13 +844,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.875</v>
+        <v>0.5993150684931506</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -865,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.8888888888888888</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -889,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -897,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.84</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -915,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.8627450980392157</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -939,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -947,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8181818181818182</v>
+        <v>0.52</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -965,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L9">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -989,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -997,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1015,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.8235294117647058</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L10">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M10">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1047,13 +1044,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7647058823529411</v>
+        <v>0.24</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1065,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8125</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M11">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1089,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1097,13 +1094,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7597402597402597</v>
+        <v>0.2112403100775194</v>
       </c>
       <c r="C12">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D12">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1115,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>37</v>
+        <v>407</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.8035714285714286</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L12">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1139,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1147,13 +1144,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6666666666666666</v>
+        <v>0.201058201058201</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1165,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7890625</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1189,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1197,13 +1194,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5416666666666666</v>
+        <v>0.1543624161073825</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1215,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K14">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1239,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1247,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4210526315789473</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1265,629 +1262,461 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>228</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15">
+        <v>0.7450980392156863</v>
+      </c>
+      <c r="L15">
+        <v>38</v>
+      </c>
+      <c r="M15">
+        <v>38</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L16">
+        <v>26</v>
+      </c>
+      <c r="M16">
+        <v>26</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17">
+        <v>0.7183098591549296</v>
+      </c>
+      <c r="L17">
+        <v>102</v>
+      </c>
+      <c r="M17">
+        <v>102</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18">
+        <v>0.7075471698113207</v>
+      </c>
+      <c r="L18">
+        <v>75</v>
+      </c>
+      <c r="M18">
+        <v>75</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19">
+        <v>0.6875</v>
+      </c>
+      <c r="L19">
+        <v>110</v>
+      </c>
+      <c r="M19">
+        <v>110</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="L20">
+        <v>15</v>
+      </c>
+      <c r="M20">
+        <v>15</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21">
+        <v>0.6276595744680851</v>
+      </c>
+      <c r="L21">
+        <v>59</v>
+      </c>
+      <c r="M21">
+        <v>59</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22">
+        <v>0.625</v>
+      </c>
+      <c r="L22">
+        <v>15</v>
+      </c>
+      <c r="M22">
+        <v>15</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23">
+        <v>0.62</v>
+      </c>
+      <c r="L23">
+        <v>31</v>
+      </c>
+      <c r="M23">
+        <v>31</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="L24">
+        <v>39</v>
+      </c>
+      <c r="M24">
+        <v>39</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25">
+        <v>0.6170212765957447</v>
+      </c>
+      <c r="L25">
+        <v>29</v>
+      </c>
+      <c r="M25">
+        <v>29</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="L26">
+        <v>16</v>
+      </c>
+      <c r="M26">
+        <v>16</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>11</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L15">
-        <v>10</v>
-      </c>
-      <c r="M15">
-        <v>10</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27">
+        <v>0.5625</v>
+      </c>
+      <c r="L27">
+        <v>27</v>
+      </c>
+      <c r="M27">
+        <v>27</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>21</v>
       </c>
-      <c r="B16">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="C16">
-        <v>11</v>
-      </c>
-      <c r="D16">
-        <v>11</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>17</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L16">
-        <v>8</v>
-      </c>
-      <c r="M16">
-        <v>8</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28">
+        <v>0.5169712793733682</v>
+      </c>
+      <c r="L28">
+        <v>198</v>
+      </c>
+      <c r="M28">
+        <v>198</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="L29">
+        <v>23</v>
+      </c>
+      <c r="M29">
+        <v>23</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>22</v>
       </c>
-      <c r="B17">
-        <v>0.3390557939914163</v>
-      </c>
-      <c r="C17">
-        <v>79</v>
-      </c>
-      <c r="D17">
-        <v>79</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>154</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L17">
-        <v>21</v>
-      </c>
-      <c r="M17">
-        <v>21</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C18">
-        <v>9</v>
-      </c>
-      <c r="D18">
-        <v>9</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>18</v>
-      </c>
-      <c r="J18" s="1" t="s">
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30">
+        <v>0.5</v>
+      </c>
+      <c r="L30">
+        <v>20</v>
+      </c>
+      <c r="M30">
+        <v>20</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31">
+        <v>0.4943820224719101</v>
+      </c>
+      <c r="L31">
         <v>44</v>
       </c>
-      <c r="K18">
-        <v>0.7123287671232876</v>
-      </c>
-      <c r="L18">
-        <v>52</v>
-      </c>
-      <c r="M18">
-        <v>52</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="C19">
-        <v>19</v>
-      </c>
-      <c r="D19">
-        <v>19</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>67</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="M31">
+        <v>44</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>45</v>
       </c>
-      <c r="K19">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L19">
-        <v>12</v>
-      </c>
-      <c r="M19">
-        <v>12</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.1375</v>
-      </c>
-      <c r="C20">
-        <v>11</v>
-      </c>
-      <c r="D20">
-        <v>11</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>69</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L20">
-        <v>27</v>
-      </c>
-      <c r="M20">
-        <v>27</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.1181818181818182</v>
-      </c>
-      <c r="C21">
-        <v>13</v>
-      </c>
-      <c r="D21">
-        <v>13</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>97</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21">
-        <v>0.6896551724137931</v>
-      </c>
-      <c r="L21">
-        <v>40</v>
-      </c>
-      <c r="M21">
-        <v>40</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.05913978494623656</v>
-      </c>
-      <c r="C22">
-        <v>11</v>
-      </c>
-      <c r="D22">
-        <v>11</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>175</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22">
-        <v>0.68</v>
-      </c>
-      <c r="L22">
-        <v>17</v>
-      </c>
-      <c r="M22">
-        <v>17</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23">
-        <v>0.68</v>
-      </c>
-      <c r="L23">
-        <v>17</v>
-      </c>
-      <c r="M23">
-        <v>17</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L24">
-        <v>21</v>
-      </c>
-      <c r="M24">
-        <v>21</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K25">
-        <v>0.625</v>
-      </c>
-      <c r="L25">
-        <v>15</v>
-      </c>
-      <c r="M25">
-        <v>15</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K26">
-        <v>0.6</v>
-      </c>
-      <c r="L26">
-        <v>18</v>
-      </c>
-      <c r="M26">
-        <v>18</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="L27">
-        <v>10</v>
-      </c>
-      <c r="M27">
-        <v>10</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K28">
-        <v>0.5868544600938967</v>
-      </c>
-      <c r="L28">
-        <v>125</v>
-      </c>
-      <c r="M28">
-        <v>125</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K29">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L29">
-        <v>7</v>
-      </c>
-      <c r="M29">
-        <v>7</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K30">
-        <v>0.5789473684210527</v>
-      </c>
-      <c r="L30">
-        <v>11</v>
-      </c>
-      <c r="M30">
-        <v>11</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K31">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L31">
-        <v>15</v>
-      </c>
-      <c r="M31">
-        <v>15</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="K32">
-        <v>0.5069444444444444</v>
+        <v>0.4764705882352941</v>
       </c>
       <c r="L32">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="M32">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1899,21 +1728,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>71</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.4857142857142857</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1930,16 +1759,16 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.4728682170542636</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L34">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1951,21 +1780,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>68</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.4</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L35">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1977,21 +1806,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.3636363636363636</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L36">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="M36">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2003,21 +1832,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.36</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="L37">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="M37">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2029,21 +1858,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.3478260869565217</v>
+        <v>0.3765690376569037</v>
       </c>
       <c r="L38">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="M38">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2055,21 +1884,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>60</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>0.2894736842105263</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L39">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="M39">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2081,21 +1910,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="K40">
-        <v>0.01707317073170732</v>
+        <v>0.28125</v>
       </c>
       <c r="L40">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M40">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2107,21 +1936,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>403</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>0.006233303650934996</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L41">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M41">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2133,33 +1962,189 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>1116</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K42">
-        <v>0.004478566858605247</v>
+        <v>0.03349282296650718</v>
       </c>
       <c r="L42">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M42">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K43">
+        <v>0.03125</v>
+      </c>
+      <c r="L43">
+        <v>13</v>
+      </c>
+      <c r="M43">
+        <v>13</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K44">
+        <v>0.02125279642058166</v>
+      </c>
+      <c r="L44">
+        <v>19</v>
+      </c>
+      <c r="M44">
+        <v>19</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K45">
+        <v>0.02108768035516093</v>
+      </c>
+      <c r="L45">
+        <v>19</v>
+      </c>
+      <c r="M45">
+        <v>19</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K46">
+        <v>0.01168770453482936</v>
+      </c>
+      <c r="L46">
+        <v>25</v>
+      </c>
+      <c r="M46">
+        <v>29</v>
+      </c>
+      <c r="N46">
+        <v>0.86</v>
+      </c>
+      <c r="O46">
+        <v>0.14</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K47">
+        <v>0.007409793814432989</v>
+      </c>
+      <c r="L47">
+        <v>23</v>
+      </c>
+      <c r="M47">
+        <v>26</v>
+      </c>
+      <c r="N47">
         <v>0.88</v>
       </c>
-      <c r="O42">
+      <c r="O47">
         <v>0.12</v>
       </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>1556</v>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K48">
+        <v>0.004694835680751174</v>
+      </c>
+      <c r="L48">
+        <v>15</v>
+      </c>
+      <c r="M48">
+        <v>21</v>
+      </c>
+      <c r="N48">
+        <v>0.71</v>
+      </c>
+      <c r="O48">
+        <v>0.29</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>3180</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,6 +40,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
@@ -58,9 +61,6 @@
     <t>forced</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
@@ -76,130 +76,127 @@
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
     <t>share</t>
-  </si>
-  <si>
-    <t>online</t>
   </si>
   <si>
     <t>shopping</t>
@@ -583,10 +580,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,13 +641,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -662,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -694,13 +691,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7647058823529411</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -712,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -736,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -744,13 +741,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6923076923076923</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -762,19 +759,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -786,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -794,13 +791,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6111111111111112</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -812,10 +809,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6">
         <v>0.9090909090909091</v>
@@ -844,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5993150684931506</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C7">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -862,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>0.8947368421052632</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -886,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -894,13 +891,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5862068965517241</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -912,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.8660714285714286</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L8">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="M8">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -936,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -944,7 +941,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.52</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="C9">
         <v>13</v>
@@ -962,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.8518518518518519</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="M9">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -986,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -994,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3684210526315789</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1012,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.8448275862068966</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L10">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="M10">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1036,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1044,13 +1041,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.24</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1062,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.8170731707317073</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1086,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1094,13 +1091,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2112403100775194</v>
+        <v>0.2189922480620155</v>
       </c>
       <c r="C12">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D12">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1112,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.7916666666666666</v>
+        <v>0.7734375</v>
       </c>
       <c r="L12">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M12">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1136,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,13 +1141,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.201058201058201</v>
+        <v>0.1798941798941799</v>
       </c>
       <c r="C13">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1162,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K13">
-        <v>0.7890625</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L13">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="M13">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1186,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1194,13 +1191,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1543624161073825</v>
+        <v>0.1140939597315436</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1212,69 +1209,45 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="L14">
+        <v>14</v>
+      </c>
+      <c r="M14">
+        <v>14</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K14">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L14">
-        <v>28</v>
-      </c>
-      <c r="M14">
-        <v>28</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.09523809523809523</v>
-      </c>
-      <c r="C15">
-        <v>24</v>
-      </c>
-      <c r="D15">
-        <v>24</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>228</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="K15">
-        <v>0.7450980392156863</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1286,21 +1259,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K16">
-        <v>0.7222222222222222</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L16">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1312,21 +1285,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K17">
-        <v>0.7183098591549296</v>
+        <v>0.7112676056338029</v>
       </c>
       <c r="L17">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M17">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1338,21 +1311,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K18">
-        <v>0.7075471698113207</v>
+        <v>0.69375</v>
       </c>
       <c r="L18">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="M18">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1364,21 +1337,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K19">
-        <v>0.6875</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L19">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="M19">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1390,21 +1363,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K20">
-        <v>0.6818181818181818</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1416,21 +1389,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K21">
-        <v>0.6276595744680851</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L21">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="M21">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1442,21 +1415,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K22">
-        <v>0.625</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1468,21 +1441,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>0.62</v>
+        <v>0.625</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1494,21 +1467,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>0.6190476190476191</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="M24">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1520,21 +1493,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>0.6170212765957447</v>
+        <v>0.6</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1546,21 +1519,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>0.5925925925925926</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1572,21 +1545,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>0.5625</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M27">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1598,21 +1571,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K28">
-        <v>0.5169712793733682</v>
+        <v>0.5625</v>
       </c>
       <c r="L28">
-        <v>198</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>198</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1624,21 +1597,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>185</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>0.5111111111111111</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L29">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1650,15 +1623,15 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L30">
         <v>20</v>
@@ -1676,21 +1649,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>0.4943820224719101</v>
+        <v>0.5456919060052219</v>
       </c>
       <c r="L31">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="M31">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1702,21 +1675,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>45</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>0.4764705882352941</v>
+        <v>0.4941176470588236</v>
       </c>
       <c r="L32">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M32">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1728,21 +1701,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.4705882352941176</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="M33">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1754,21 +1727,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.4642857142857143</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1780,21 +1753,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.4461538461538462</v>
+        <v>0.4440677966101695</v>
       </c>
       <c r="L35">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="M35">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1806,21 +1779,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>36</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.4102564102564102</v>
+        <v>0.3891213389121339</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1832,21 +1805,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>46</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.4067796610169492</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L37">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="M37">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1858,21 +1831,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>175</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.3765690376569037</v>
+        <v>0.375</v>
       </c>
       <c r="L38">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="M38">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1884,21 +1857,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>149</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.3698630136986301</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L39">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M39">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1910,21 +1883,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.28125</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L40">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M40">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1936,15 +1909,15 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K41">
-        <v>0.2142857142857143</v>
+        <v>0.234375</v>
       </c>
       <c r="L41">
         <v>15</v>
@@ -1962,15 +1935,15 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K42">
-        <v>0.03349282296650718</v>
+        <v>0.2</v>
       </c>
       <c r="L42">
         <v>14</v>
@@ -1988,21 +1961,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>404</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K43">
-        <v>0.03125</v>
+        <v>0.04807692307692308</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2014,21 +1987,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K44">
-        <v>0.02125279642058166</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="L44">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M44">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2040,21 +2013,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>875</v>
+        <v>870</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K45">
-        <v>0.02108768035516093</v>
+        <v>0.01997780244173141</v>
       </c>
       <c r="L45">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M45">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2066,85 +2039,85 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K46">
-        <v>0.01168770453482936</v>
+        <v>0.01355773726040206</v>
       </c>
       <c r="L46">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M46">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N46">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="O46">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>2114</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K47">
-        <v>0.007409793814432989</v>
+        <v>0.009017713365539453</v>
       </c>
       <c r="L47">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M47">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N47">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="O47">
-        <v>0.12</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>3081</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K48">
-        <v>0.004694835680751174</v>
+        <v>0.00437636761487965</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N48">
-        <v>0.71</v>
+        <v>0.88</v>
       </c>
       <c r="O48">
-        <v>0.29</v>
+        <v>0.12</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>3180</v>
+        <v>3185</v>
       </c>
     </row>
   </sheetData>
